--- a/任务及绩效评价/SE2019春-G11-第十一周任务以及绩效评价.xlsx
+++ b/任务及绩效评价/SE2019春-G11-第十一周任务以及绩效评价.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>绩效评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,23 +66,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>翻转ppt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第十一周任务清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完善详细设计报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余模块的详细设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>—</t>
+    <t>实现大概框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转ppt1视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转ppt2视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,7 +520,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -552,12 +552,12 @@
         <v>4</v>
       </c>
       <c r="F3" s="7">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -571,19 +571,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F6" s="5"/>
@@ -593,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -605,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="5">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -616,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -628,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="5">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -648,7 +636,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
